--- a/Completed Projects/Sana Safinaz - Dolmen Mall Clifton Karachi/Variation order/Summary of VOs.xlsx
+++ b/Completed Projects/Sana Safinaz - Dolmen Mall Clifton Karachi/Variation order/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8816E0-8C69-4257-89C1-165DC522BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E3B3A-79AC-467E-952A-13BF59FF635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <dimension ref="A7:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -902,7 +902,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45360</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
